--- a/medicine/Enfance/Kim_Jae-hong/Kim_Jae-hong.xlsx
+++ b/medicine/Enfance/Kim_Jae-hong/Kim_Jae-hong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kim Jae-hong, né le 14 février 1958, est un auteur-illustrateur sud-coréen de livres pour la jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kim Jae-hong a présenté, dans de nombreuses expositions personnelles et de groupe, son univers artistique en lequel « les êtres humains et la nature ne font qu’un ». Son premier album Les enfants de la rivière Dong (original : donggangui aideul) a remporté en Suisse le prix international du livre Espace enfants en 2004.[réf. nécessaire] 
-Écrit par Kim Jin-Kyeong, il illustre L’École des chats (original : goyangi hakgyo), qui a reçu en France en 2006 le prix des Incorruptibles[1] : il était le seul titre d’Orient retenu dans la catégorie « CM2/6e » de ce prix français[2]. Pour ce livre, Kim Jae-hong a été invité au festival du livre de Paris[3],[4]. 
-Son album Le parapluie vert[5] (original : yeongiui binirusan) a remporté, quant à lui, le Prix du Jury Enfants à la Biennale d'illustration de Bratislava en 2007[6],[7].
+Écrit par Kim Jin-Kyeong, il illustre L’École des chats (original : goyangi hakgyo), qui a reçu en France en 2006 le prix des Incorruptibles : il était le seul titre d’Orient retenu dans la catégorie « CM2/6e » de ce prix français. Pour ce livre, Kim Jae-hong a été invité au festival du livre de Paris,. 
+Son album Le parapluie vert (original : yeongiui binirusan) a remporté, quant à lui, le Prix du Jury Enfants à la Biennale d'illustration de Bratislava en 2007,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Animaux tués sur la route : il n’y a plus de route pour nous (rodeukil uri giri eopseojyeosseoyo), Spoonbook (Corée du Sud), 2013,  (ISBN 978-89-93260-85-4)
 Jae-Hong Kim, Yeong-Hee Lim et Françoise Nagel, Dans le bois, Picquier jeunesse, coll. « Picquier jeunesse », 2007 (ISBN 978-2-87730-954-7)
@@ -553,7 +569,7 @@
 かわべのトンイとスニ, 小学館 (Japon), 2007,  (ISBN 978-4097262053)
 Les Enfants de la rivière : Dong, Les Portes du Monde (France), 2005,  (ISBN 9782847460995)
 Cet automne-là (original : geuhae gaeul), texte de Kwon Jeong-saeng et Yoo Eun-sil, Changbi (Corée du Sud), 2018,  (ISBN 978-89-364-5533-0)
-Le Parapluie vert[5] (original : Yeongieu vinylusan), texte français de Michèle Moreau, Didier jeunesse, 2008  (ISBN 9782278058785)
+Le Parapluie vert (original : Yeongieu vinylusan), texte français de Michèle Moreau, Didier jeunesse, 2008  (ISBN 9782278058785)
 L’École des chats, tome 5 : la montagne des âmes, Philippe Picquier (France), 2006,  (ISBN 9782877309066)
  L’École des chats, tome 4 : je te sauverai des ténèbres, Philippe Picquier (France), 2006,  (ISBN 9782877308786)
 L’École des chats, tome 3 : la prophétie se réalise (original : goyangi hakgyo 3 : sijakdoen yeeon), texte de Kim Jin-Kyeong, Munhakdongne (Corée du Sud), 2001,  (ISBN 978-89-546-8634-1)
@@ -590,10 +606,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2007 : Prix du Jury Enfants à la Biennale d'illustration de Bratislava[6],[7], pour Le parapluie vert (original : yeongiui binirusan)
-2006 : Prix des Incorruptibles[1], en France, pour L’École des chats (original : goyangi hakgyo)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2007 : Prix du Jury Enfants à la Biennale d'illustration de Bratislava pour Le parapluie vert (original : yeongiui binirusan)
+2006 : Prix des Incorruptibles, en France, pour L’École des chats (original : goyangi hakgyo)
 2004 : Prix international du livre Espace enfants, en Suisse, pour Les enfants de la rivière (original : donggangui aideul)</t>
         </is>
       </c>
